--- a/excel/data202404.xlsx
+++ b/excel/data202404.xlsx
@@ -4627,7 +4627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4691,6 +4691,16 @@
           <t>平均利率</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>当月放款</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>当月放款笔数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4730,6 +4740,12 @@
       <c r="K2" t="n">
         <v>6.6</v>
       </c>
+      <c r="L2" t="n">
+        <v>206.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4769,6 +4785,12 @@
       <c r="K3" t="n">
         <v>6.6</v>
       </c>
+      <c r="L3" t="n">
+        <v>3270.47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4808,6 +4830,12 @@
       <c r="K4" t="n">
         <v>10.97</v>
       </c>
+      <c r="L4" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4847,6 +4875,12 @@
       <c r="K5" t="n">
         <v>8.5</v>
       </c>
+      <c r="L5" t="n">
+        <v>170</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4886,6 +4920,12 @@
       <c r="K6" t="n">
         <v>5.4</v>
       </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4925,6 +4965,12 @@
       <c r="K7" t="n">
         <v>6.5</v>
       </c>
+      <c r="L7" t="n">
+        <v>13310.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>405</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4964,6 +5010,12 @@
       <c r="K8" t="n">
         <v>6.3</v>
       </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5003,6 +5055,12 @@
       <c r="K9" t="n">
         <v>3.95</v>
       </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5042,6 +5100,12 @@
       <c r="K10" t="n">
         <v>5</v>
       </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5081,6 +5145,12 @@
       <c r="K11" t="n">
         <v>4.9</v>
       </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5120,6 +5190,12 @@
       <c r="K12" t="n">
         <v>5.15</v>
       </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5159,6 +5235,12 @@
       <c r="K13" t="n">
         <v>5.15</v>
       </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5198,6 +5280,12 @@
       <c r="K14" t="n">
         <v>5</v>
       </c>
+      <c r="L14" t="n">
+        <v>2538.7</v>
+      </c>
+      <c r="M14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5237,6 +5325,12 @@
       <c r="K15" t="n">
         <v>6.5</v>
       </c>
+      <c r="L15" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5275,6 +5369,12 @@
       </c>
       <c r="K16" t="n">
         <v>86.52000000000001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>19791.82</v>
+      </c>
+      <c r="M16" t="n">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -5288,7 +5388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5362,6 +5462,16 @@
           <t>不良金额</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>当月放款</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>当月放款笔数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5405,6 +5515,12 @@
       <c r="M2" t="n">
         <v>60.45</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5448,6 +5564,12 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>19732</v>
+      </c>
+      <c r="O3" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5491,6 +5613,12 @@
       <c r="M4" t="n">
         <v>2125</v>
       </c>
+      <c r="N4" t="n">
+        <v>18931</v>
+      </c>
+      <c r="O4" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5534,6 +5662,12 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>139.65</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5577,6 +5711,12 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
+      <c r="N6" t="n">
+        <v>1954.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5620,6 +5760,12 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
+      <c r="N7" t="n">
+        <v>1574.06</v>
+      </c>
+      <c r="O7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5663,6 +5809,12 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
+      <c r="N8" t="n">
+        <v>335</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5706,6 +5858,12 @@
       <c r="M9" t="n">
         <v>4711.52</v>
       </c>
+      <c r="N9" t="n">
+        <v>5942.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>368</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5749,6 +5907,12 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="n">
+        <v>6618.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>356</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5792,6 +5956,12 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5835,6 +6005,12 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
+      <c r="N12" t="n">
+        <v>299</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5878,6 +6054,12 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
+      <c r="N13" t="n">
+        <v>1160</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5921,6 +6103,12 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5964,6 +6152,12 @@
       <c r="M15" t="n">
         <v>17.21</v>
       </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6006,6 +6200,12 @@
       </c>
       <c r="M16" t="n">
         <v>6914.18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>56686.50999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data202404.xlsx
+++ b/excel/data202404.xlsx
@@ -4627,7 +4627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4701,6 +4701,11 @@
           <t>当月放款笔数</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>当月新增户数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4746,6 +4751,9 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4791,6 +4799,9 @@
       <c r="M3" t="n">
         <v>71</v>
       </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4836,6 +4847,9 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4881,6 +4895,9 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4926,6 +4943,9 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4971,6 +4991,9 @@
       <c r="M7" t="n">
         <v>405</v>
       </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5016,6 +5039,9 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5061,6 +5087,9 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5106,6 +5135,9 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5151,6 +5183,9 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5196,6 +5231,9 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5241,6 +5279,9 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5286,6 +5327,9 @@
       <c r="M14" t="n">
         <v>23</v>
       </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5331,6 +5375,9 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5375,6 +5422,9 @@
       </c>
       <c r="M16" t="n">
         <v>503</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5388,7 +5438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5472,6 +5522,11 @@
           <t>当月放款笔数</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>当月新开户</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5521,6 +5576,9 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5570,6 +5628,9 @@
       <c r="O3" t="n">
         <v>102</v>
       </c>
+      <c r="P3" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5619,6 +5680,9 @@
       <c r="O4" t="n">
         <v>77</v>
       </c>
+      <c r="P4" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5668,6 +5732,9 @@
       <c r="O5" t="n">
         <v>4</v>
       </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5717,6 +5784,9 @@
       <c r="O6" t="n">
         <v>37</v>
       </c>
+      <c r="P6" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5766,6 +5836,9 @@
       <c r="O7" t="n">
         <v>81</v>
       </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5815,6 +5888,9 @@
       <c r="O8" t="n">
         <v>5</v>
       </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5864,6 +5940,9 @@
       <c r="O9" t="n">
         <v>368</v>
       </c>
+      <c r="P9" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5913,6 +5992,9 @@
       <c r="O10" t="n">
         <v>356</v>
       </c>
+      <c r="P10" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5962,6 +6044,9 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6011,6 +6096,9 @@
       <c r="O12" t="n">
         <v>3</v>
       </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6060,6 +6148,9 @@
       <c r="O13" t="n">
         <v>6</v>
       </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6109,6 +6200,9 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6158,6 +6252,9 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6206,6 +6303,9 @@
       </c>
       <c r="O16" t="n">
         <v>1039</v>
+      </c>
+      <c r="P16" t="n">
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data202404.xlsx
+++ b/excel/data202404.xlsx
@@ -851,22 +851,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1100.00</t>
+          <t>1400.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>1300.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1219,7 +1219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2503,22 +2503,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>姚志华</t>
+          <t>金超</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>普惠业务部</t>
+          <t>公司业务四部</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2558,19 +2558,19 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>68419.95</t>
+          <t>400.00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1925.00</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>方兆阳</t>
+          <t>姚志华</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2580,12 +2580,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>945.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2610,34 +2610,34 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>945.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>945.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>13905.72</t>
+          <t>68419.95</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>231.00</t>
+          <t>1925.00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>刘启斌</t>
+          <t>方兆阳</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>945.00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2677,34 +2677,34 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>945.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>945.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>20308.99</t>
+          <t>13905.72</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>231.00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>彭珍珍</t>
+          <t>刘启斌</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2759,19 +2759,19 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>26569.00</t>
+          <t>20308.99</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>113.00</t>
+          <t>80.00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>邱俊杰</t>
+          <t>彭珍珍</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2826,19 +2826,19 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>41165.00</t>
+          <t>26569.00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>158.00</t>
+          <t>113.00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>沈佳杰</t>
+          <t>邱俊杰</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2893,19 +2893,19 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>14015.00</t>
+          <t>41165.00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>158.00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>王明印</t>
+          <t>沈佳杰</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2960,19 +2960,19 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>34221.00</t>
+          <t>14015.00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>128.00</t>
+          <t>62.00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>王爽</t>
+          <t>王明印</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3012,92 +3012,159 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>15728.00</t>
+          <t>34221.00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>63.00</t>
+          <t>128.00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>王爽</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>普惠业务部</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>15728.00</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>叶峰睿</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>普惠业务部</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>420.00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>420.00</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>420.00</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>32588.00</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>157.00</t>
         </is>

--- a/excel/data202404.xlsx
+++ b/excel/data202404.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,22 +928,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>273197.65</t>
+          <t>314113.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2927.00</t>
+          <t>3134.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78064.22</t>
+          <t>118469.22</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1159,22 +1159,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3267.00</t>
+          <t>10209.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3267.00</t>
+          <t>10209.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1203,6 +1203,83 @@
         </is>
       </c>
       <c r="O10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>普惠业务三部</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
